--- a/기획/시스템 기획/레벨링 시스템 기획.xlsx
+++ b/기획/시스템 기획/레벨링 시스템 기획.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\1team_UnityProject\기획\시스템 기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D0008D4-BB9B-474F-BE9A-DE5889EF8C85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C804D5-246B-49CD-82FF-DD2FD719FD2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C66A6A3F-89B0-4855-9A19-0EC3057912EB}"/>
+    <workbookView xWindow="5715" yWindow="15" windowWidth="20340" windowHeight="15420" activeTab="1" xr2:uid="{C66A6A3F-89B0-4855-9A19-0EC3057912EB}"/>
   </bookViews>
   <sheets>
     <sheet name="시스템 변화" sheetId="1" r:id="rId1"/>
-    <sheet name="의도&amp;효과" sheetId="2" r:id="rId2"/>
-    <sheet name="레벨링 예시" sheetId="3" r:id="rId3"/>
-    <sheet name="세부 구현 방식" sheetId="4" r:id="rId4"/>
+    <sheet name="추가 시스템" sheetId="5" r:id="rId2"/>
+    <sheet name="의도&amp;효과" sheetId="2" r:id="rId3"/>
+    <sheet name="레벨링 예시" sheetId="3" r:id="rId4"/>
+    <sheet name="세부 구현 방식" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>Leveling System</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,12 +120,54 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>추가 시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  연승, 연패 보너스 수입 시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  승리 보너스 수입 시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라운드 종료 시, 승리/패배 구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연속 횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2. 유저 역량에 따른 자연스러운 허들 형성 후, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 솔로 플레잉 게임인데, 같은 라운드에서 연속된 패배를 겪을 경우
+낮은 템포로 인해 게임에 대한 흥미가 떨어질 수 있다고 염려.
+패배 시, 허들 극복을 위한 연패 보너스를 높게 설정.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,8 +217,17 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,8 +252,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -289,71 +347,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -672,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76846167-7E84-45BE-A1A7-F9CD29D7844D}">
   <dimension ref="B1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -687,428 +925,428 @@
   <sheetData>
     <row r="1" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
     </row>
     <row r="3" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
     </row>
     <row r="4" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
     </row>
     <row r="6" spans="2:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="8" spans="2:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="10" spans="2:15" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C11" s="8"/>
-      <c r="D11" s="17" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="8"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" spans="2:15" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:15" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="11"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="10"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C15" s="12"/>
-      <c r="D15" s="18" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="13"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="12"/>
     </row>
     <row r="16" spans="2:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="16"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="15"/>
     </row>
     <row r="19" spans="3:11" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
     </row>
     <row r="21" spans="3:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C22" s="8"/>
-      <c r="D22" s="17" t="s">
+      <c r="C22" s="7"/>
+      <c r="D22" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="8"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="7"/>
     </row>
     <row r="23" spans="3:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
     </row>
     <row r="24" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="3:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="11"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="10"/>
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C26" s="12"/>
-      <c r="D26" s="18" t="s">
+      <c r="C26" s="11"/>
+      <c r="D26" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="13"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="12"/>
     </row>
     <row r="27" spans="3:11" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="14"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="16"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="15"/>
     </row>
     <row r="30" spans="3:11" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
     </row>
     <row r="32" spans="3:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
     </row>
     <row r="33" spans="3:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="8"/>
-      <c r="D33" s="19" t="s">
+      <c r="C33" s="7"/>
+      <c r="D33" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="8"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="7"/>
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C34" s="8"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="8"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="7"/>
     </row>
     <row r="35" spans="3:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
     </row>
     <row r="36" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="37" spans="3:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="9"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="11"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="10"/>
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C38" s="12"/>
-      <c r="D38" s="18" t="s">
+      <c r="C38" s="11"/>
+      <c r="D38" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="13"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="12"/>
     </row>
     <row r="39" spans="3:11" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="14"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="16"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="15"/>
     </row>
     <row r="42" spans="3:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
     </row>
     <row r="44" spans="3:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
     </row>
     <row r="45" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C45" s="8"/>
-      <c r="D45" s="8" t="s">
+      <c r="C45" s="7"/>
+      <c r="D45" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
     </row>
     <row r="46" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C46" s="8"/>
-      <c r="D46" s="8" t="s">
+      <c r="C46" s="7"/>
+      <c r="D46" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
     </row>
     <row r="47" spans="3:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
     </row>
     <row r="48" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="49" spans="3:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="9"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="11"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="10"/>
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C50" s="12"/>
-      <c r="D50" s="18" t="s">
+      <c r="C50" s="11"/>
+      <c r="D50" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="13"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="12"/>
     </row>
     <row r="51" spans="3:11" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C51" s="14"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="16"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1127,6 +1365,544 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA1F734-F752-4778-A415-95DD4C012EE4}">
+  <dimension ref="B1:O53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="0.875" customWidth="1"/>
+    <col min="3" max="3" width="1.625" customWidth="1"/>
+    <col min="4" max="4" width="3.625" customWidth="1"/>
+    <col min="11" max="11" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+    </row>
+    <row r="4" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+    </row>
+    <row r="6" spans="2:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="8" spans="2:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="10" spans="2:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="20"/>
+      <c r="D11" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="30"/>
+      <c r="F11" s="27">
+        <v>1</v>
+      </c>
+      <c r="G11" s="27">
+        <v>2</v>
+      </c>
+      <c r="H11" s="27">
+        <v>3</v>
+      </c>
+      <c r="I11" s="27">
+        <v>4</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="20"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C12" s="20"/>
+      <c r="D12" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="25">
+        <v>0</v>
+      </c>
+      <c r="G12" s="25">
+        <v>1</v>
+      </c>
+      <c r="H12" s="25">
+        <v>1</v>
+      </c>
+      <c r="I12" s="25">
+        <v>1</v>
+      </c>
+      <c r="J12" s="26">
+        <v>2</v>
+      </c>
+      <c r="K12" s="20"/>
+    </row>
+    <row r="13" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="20"/>
+      <c r="D13" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="23">
+        <v>0</v>
+      </c>
+      <c r="G13" s="23">
+        <v>2</v>
+      </c>
+      <c r="H13" s="23">
+        <v>3</v>
+      </c>
+      <c r="I13" s="23">
+        <v>3</v>
+      </c>
+      <c r="J13" s="24">
+        <v>4</v>
+      </c>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" spans="2:15" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+    </row>
+    <row r="15" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="20"/>
+      <c r="D15" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C16" s="20"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C17" s="20"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" spans="3:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="20"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C19" s="20"/>
+      <c r="D19" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="20"/>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22" spans="3:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+    </row>
+    <row r="25" spans="3:11" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="3:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="10"/>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C28" s="11"/>
+      <c r="D28" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="12"/>
+    </row>
+    <row r="29" spans="3:11" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="15"/>
+    </row>
+    <row r="32" spans="3:11" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="34" spans="3:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+    </row>
+    <row r="35" spans="3:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="7"/>
+      <c r="D35" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="7"/>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C36" s="7"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37" spans="3:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+    </row>
+    <row r="38" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="3:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="10"/>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C40" s="11"/>
+      <c r="D40" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="12"/>
+    </row>
+    <row r="41" spans="3:11" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="13"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="15"/>
+    </row>
+    <row r="44" spans="3:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="46" spans="3:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+    </row>
+    <row r="47" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C47" s="7"/>
+      <c r="D47" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+    </row>
+    <row r="48" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C48" s="7"/>
+      <c r="D48" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+    </row>
+    <row r="49" spans="3:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+    </row>
+    <row r="50" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="51" spans="3:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="8"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="10"/>
+    </row>
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C52" s="11"/>
+      <c r="D52" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="12"/>
+    </row>
+    <row r="53" spans="3:11" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C53" s="13"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="D15:J17"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="D52:J52"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B2:O4"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="D35:J36"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D19:J20"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2E6A1D-4A25-41F0-B12B-03079C69A095}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1139,7 +1915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB5C3CC-9E08-4D88-ACCA-999531685145}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1152,7 +1928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C38AC4-B066-404A-B3BC-9FBBB46A4760}">
   <dimension ref="A1"/>
   <sheetViews>
